--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1294.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1294.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8912454896374311</v>
+        <v>1.123091816902161</v>
       </c>
       <c r="B1">
-        <v>1.884182695712944</v>
+        <v>2.270363807678223</v>
       </c>
       <c r="C1">
-        <v>5.682135421489038</v>
+        <v>10.18928050994873</v>
       </c>
       <c r="D1">
-        <v>2.770266047862264</v>
+        <v>1.893985867500305</v>
       </c>
       <c r="E1">
-        <v>1.382009591799109</v>
+        <v>1.287002325057983</v>
       </c>
     </row>
   </sheetData>
